--- a/Sqls/planilhageral.xlsx
+++ b/Sqls/planilhageral.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>MATRÍCULA</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>ufrg</t>
-  </si>
-  <si>
-    <t>darg</t>
   </si>
   <si>
     <t>ufctps</t>
@@ -429,7 +426,7 @@
 Convocação SETRE</t>
   </si>
   <si>
-    <t>Lote</t>
+    <t>dtarg</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -520,31 +517,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,104 +538,46 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Vírgula 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -965,541 +888,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-    </row>
-    <row r="2" spans="1:42">
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
+      <c r="C2" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
+      <c r="C3" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="C5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
+      <c r="C6" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42">
+      <c r="C7" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="C8" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42">
+      <c r="C10" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="C12" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42">
+      <c r="C13" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="C14" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="C15" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1507,7 +1428,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1515,7 +1436,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1523,22 +1444,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1">
+  <conditionalFormatting sqref="H1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
+  <conditionalFormatting sqref="J1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
